--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.3066897535356</v>
+        <v>54.532215</v>
       </c>
       <c r="H2">
-        <v>54.3066897535356</v>
+        <v>109.06443</v>
       </c>
       <c r="I2">
-        <v>0.1888310352185631</v>
+        <v>0.1866621762463068</v>
       </c>
       <c r="J2">
-        <v>0.1888310352185631</v>
+        <v>0.1412452311742988</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.3526627332862</v>
+        <v>17.353591</v>
       </c>
       <c r="N2">
-        <v>17.3526627332862</v>
+        <v>34.707182</v>
       </c>
       <c r="O2">
-        <v>0.1593546086834131</v>
+        <v>0.1565740307431703</v>
       </c>
       <c r="P2">
-        <v>0.1593546086834131</v>
+        <v>0.1172025721985097</v>
       </c>
       <c r="Q2">
-        <v>942.3656714543126</v>
+        <v>946.3297554340651</v>
       </c>
       <c r="R2">
-        <v>942.3656714543126</v>
+        <v>3785.31902173626</v>
       </c>
       <c r="S2">
-        <v>0.03009109572453791</v>
+        <v>0.0292264493221763</v>
       </c>
       <c r="T2">
-        <v>0.03009109572453791</v>
+        <v>0.01655430440440095</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.3066897535356</v>
+        <v>54.532215</v>
       </c>
       <c r="H3">
-        <v>54.3066897535356</v>
+        <v>109.06443</v>
       </c>
       <c r="I3">
-        <v>0.1888310352185631</v>
+        <v>0.1866621762463068</v>
       </c>
       <c r="J3">
-        <v>0.1888310352185631</v>
+        <v>0.1412452311742988</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.4684254635966</v>
+        <v>20.66837966666667</v>
       </c>
       <c r="N3">
-        <v>19.4684254635966</v>
+        <v>62.005139</v>
       </c>
       <c r="O3">
-        <v>0.1787842804944616</v>
+        <v>0.1864819513920883</v>
       </c>
       <c r="P3">
-        <v>0.1787842804944616</v>
+        <v>0.2093849561259721</v>
       </c>
       <c r="Q3">
-        <v>1057.265741641373</v>
+        <v>1127.092523684295</v>
       </c>
       <c r="R3">
-        <v>1057.265741641373</v>
+        <v>6762.55514210577</v>
       </c>
       <c r="S3">
-        <v>0.03376002076657515</v>
+        <v>0.0348091268775052</v>
       </c>
       <c r="T3">
-        <v>0.03376002076657515</v>
+        <v>0.02957462653243334</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.3066897535356</v>
+        <v>54.532215</v>
       </c>
       <c r="H4">
-        <v>54.3066897535356</v>
+        <v>109.06443</v>
       </c>
       <c r="I4">
-        <v>0.1888310352185631</v>
+        <v>0.1866621762463068</v>
       </c>
       <c r="J4">
-        <v>0.1888310352185631</v>
+        <v>0.1412452311742988</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.7837605639345</v>
+        <v>20.84714766666667</v>
       </c>
       <c r="N4">
-        <v>20.7837605639345</v>
+        <v>62.541443</v>
       </c>
       <c r="O4">
-        <v>0.1908633898175418</v>
+        <v>0.1880948986102114</v>
       </c>
       <c r="P4">
-        <v>0.1908633898175418</v>
+        <v>0.2111959993930501</v>
       </c>
       <c r="Q4">
-        <v>1128.697236857359</v>
+        <v>1136.841138695415</v>
       </c>
       <c r="R4">
-        <v>1128.697236857359</v>
+        <v>6821.04683217249</v>
       </c>
       <c r="S4">
-        <v>0.03604093148457058</v>
+        <v>0.03511020311541048</v>
       </c>
       <c r="T4">
-        <v>0.03604093148457058</v>
+        <v>0.02983042775735842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.3066897535356</v>
+        <v>54.532215</v>
       </c>
       <c r="H5">
-        <v>54.3066897535356</v>
+        <v>109.06443</v>
       </c>
       <c r="I5">
-        <v>0.1888310352185631</v>
+        <v>0.1866621762463068</v>
       </c>
       <c r="J5">
-        <v>0.1888310352185631</v>
+        <v>0.1412452311742988</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.6555600177368</v>
+        <v>19.739354</v>
       </c>
       <c r="N5">
-        <v>19.6555600177368</v>
+        <v>59.218062</v>
       </c>
       <c r="O5">
-        <v>0.1805027921779137</v>
+        <v>0.178099750077452</v>
       </c>
       <c r="P5">
-        <v>0.1805027921779137</v>
+        <v>0.1999732846939525</v>
       </c>
       <c r="Q5">
-        <v>1067.428399815231</v>
+        <v>1076.43069628911</v>
       </c>
       <c r="R5">
-        <v>1067.428399815231</v>
+        <v>6458.58417773466</v>
       </c>
       <c r="S5">
-        <v>0.03408452910679661</v>
+        <v>0.03324448693838054</v>
       </c>
       <c r="T5">
-        <v>0.03408452910679661</v>
+        <v>0.02824527282528118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.3066897535356</v>
+        <v>54.532215</v>
       </c>
       <c r="H6">
-        <v>54.3066897535356</v>
+        <v>109.06443</v>
       </c>
       <c r="I6">
-        <v>0.1888310352185631</v>
+        <v>0.1866621762463068</v>
       </c>
       <c r="J6">
-        <v>0.1888310352185631</v>
+        <v>0.1412452311742988</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.6219799445825</v>
+        <v>13.20871066666667</v>
       </c>
       <c r="N6">
-        <v>12.6219799445825</v>
+        <v>39.626132</v>
       </c>
       <c r="O6">
-        <v>0.115911356417974</v>
+        <v>0.1191765479548474</v>
       </c>
       <c r="P6">
-        <v>0.115911356417974</v>
+        <v>0.1338133587646982</v>
       </c>
       <c r="Q6">
-        <v>685.4579489257903</v>
+        <v>720.30024994746</v>
       </c>
       <c r="R6">
-        <v>685.4579489257903</v>
+        <v>4321.80149968476</v>
       </c>
       <c r="S6">
-        <v>0.02188766142599388</v>
+        <v>0.02224575379877415</v>
       </c>
       <c r="T6">
-        <v>0.02188766142599388</v>
+        <v>0.01890049879292918</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.3066897535356</v>
+        <v>54.532215</v>
       </c>
       <c r="H7">
-        <v>54.3066897535356</v>
+        <v>109.06443</v>
       </c>
       <c r="I7">
-        <v>0.1888310352185631</v>
+        <v>0.1866621762463068</v>
       </c>
       <c r="J7">
-        <v>0.1888310352185631</v>
+        <v>0.1412452311742988</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.0109961413101</v>
+        <v>19.015954</v>
       </c>
       <c r="N7">
-        <v>19.0109961413101</v>
+        <v>38.031908</v>
       </c>
       <c r="O7">
-        <v>0.1745835724086957</v>
+        <v>0.1715728212222307</v>
       </c>
       <c r="P7">
-        <v>0.1745835724086957</v>
+        <v>0.1284298288238175</v>
       </c>
       <c r="Q7">
-        <v>1032.42426935179</v>
+        <v>1036.98209195811</v>
       </c>
       <c r="R7">
-        <v>1032.42426935179</v>
+        <v>4147.92836783244</v>
       </c>
       <c r="S7">
-        <v>0.03296679671008898</v>
+        <v>0.03202615619406011</v>
       </c>
       <c r="T7">
-        <v>0.03296679671008898</v>
+        <v>0.01814010086189572</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.2915127415722</v>
+        <v>47.07128266666666</v>
       </c>
       <c r="H8">
-        <v>44.2915127415722</v>
+        <v>141.213848</v>
       </c>
       <c r="I8">
-        <v>0.1540070337622217</v>
+        <v>0.1611236231879644</v>
       </c>
       <c r="J8">
-        <v>0.1540070337622217</v>
+        <v>0.1828807302781694</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.3526627332862</v>
+        <v>17.353591</v>
       </c>
       <c r="N8">
-        <v>17.3526627332862</v>
+        <v>34.707182</v>
       </c>
       <c r="O8">
-        <v>0.1593546086834131</v>
+        <v>0.1565740307431703</v>
       </c>
       <c r="P8">
-        <v>0.1593546086834131</v>
+        <v>0.1172025721985097</v>
       </c>
       <c r="Q8">
-        <v>768.5756825515507</v>
+        <v>816.8557872427226</v>
       </c>
       <c r="R8">
-        <v>768.5756825515507</v>
+        <v>4901.134723456335</v>
       </c>
       <c r="S8">
-        <v>0.02454173059967202</v>
+        <v>0.02522777513048332</v>
       </c>
       <c r="T8">
-        <v>0.02454173059967202</v>
+        <v>0.02143409199414333</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.2915127415722</v>
+        <v>47.07128266666666</v>
       </c>
       <c r="H9">
-        <v>44.2915127415722</v>
+        <v>141.213848</v>
       </c>
       <c r="I9">
-        <v>0.1540070337622217</v>
+        <v>0.1611236231879644</v>
       </c>
       <c r="J9">
-        <v>0.1540070337622217</v>
+        <v>0.1828807302781694</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.4684254635966</v>
+        <v>20.66837966666667</v>
       </c>
       <c r="N9">
-        <v>19.4684254635966</v>
+        <v>62.005139</v>
       </c>
       <c r="O9">
-        <v>0.1787842804944616</v>
+        <v>0.1864819513920883</v>
       </c>
       <c r="P9">
-        <v>0.1787842804944616</v>
+        <v>0.2093849561259721</v>
       </c>
       <c r="Q9">
-        <v>862.2860144792375</v>
+        <v>972.8871415516523</v>
       </c>
       <c r="R9">
-        <v>862.2860144792375</v>
+        <v>8755.98427396487</v>
       </c>
       <c r="S9">
-        <v>0.02753403672226506</v>
+        <v>0.03004664766745513</v>
       </c>
       <c r="T9">
-        <v>0.02753403672226506</v>
+        <v>0.03829247368558023</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.2915127415722</v>
+        <v>47.07128266666666</v>
       </c>
       <c r="H10">
-        <v>44.2915127415722</v>
+        <v>141.213848</v>
       </c>
       <c r="I10">
-        <v>0.1540070337622217</v>
+        <v>0.1611236231879644</v>
       </c>
       <c r="J10">
-        <v>0.1540070337622217</v>
+        <v>0.1828807302781694</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.7837605639345</v>
+        <v>20.84714766666667</v>
       </c>
       <c r="N10">
-        <v>20.7837605639345</v>
+        <v>62.541443</v>
       </c>
       <c r="O10">
-        <v>0.1908633898175418</v>
+        <v>0.1880948986102114</v>
       </c>
       <c r="P10">
-        <v>0.1908633898175418</v>
+        <v>0.2111959993930501</v>
       </c>
       <c r="Q10">
-        <v>920.5441958352907</v>
+        <v>981.3019806114071</v>
       </c>
       <c r="R10">
-        <v>920.5441958352907</v>
+        <v>8831.717825502663</v>
       </c>
       <c r="S10">
-        <v>0.02939430451960225</v>
+        <v>0.03030653156725006</v>
       </c>
       <c r="T10">
-        <v>0.02939430451960225</v>
+        <v>0.03862367860082881</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>44.2915127415722</v>
+        <v>47.07128266666666</v>
       </c>
       <c r="H11">
-        <v>44.2915127415722</v>
+        <v>141.213848</v>
       </c>
       <c r="I11">
-        <v>0.1540070337622217</v>
+        <v>0.1611236231879644</v>
       </c>
       <c r="J11">
-        <v>0.1540070337622217</v>
+        <v>0.1828807302781694</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.6555600177368</v>
+        <v>19.739354</v>
       </c>
       <c r="N11">
-        <v>19.6555600177368</v>
+        <v>59.218062</v>
       </c>
       <c r="O11">
-        <v>0.1805027921779137</v>
+        <v>0.178099750077452</v>
       </c>
       <c r="P11">
-        <v>0.1805027921779137</v>
+        <v>0.1999732846939525</v>
       </c>
       <c r="Q11">
-        <v>870.5744869683265</v>
+        <v>929.1567117913971</v>
       </c>
       <c r="R11">
-        <v>870.5744869683265</v>
+        <v>8362.410406122575</v>
       </c>
       <c r="S11">
-        <v>0.02779869960911924</v>
+        <v>0.02869607702135001</v>
       </c>
       <c r="T11">
-        <v>0.02779869960911924</v>
+        <v>0.0365712603409543</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>44.2915127415722</v>
+        <v>47.07128266666666</v>
       </c>
       <c r="H12">
-        <v>44.2915127415722</v>
+        <v>141.213848</v>
       </c>
       <c r="I12">
-        <v>0.1540070337622217</v>
+        <v>0.1611236231879644</v>
       </c>
       <c r="J12">
-        <v>0.1540070337622217</v>
+        <v>0.1828807302781694</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.6219799445825</v>
+        <v>13.20871066666667</v>
       </c>
       <c r="N12">
-        <v>12.6219799445825</v>
+        <v>39.626132</v>
       </c>
       <c r="O12">
-        <v>0.115911356417974</v>
+        <v>0.1191765479548474</v>
       </c>
       <c r="P12">
-        <v>0.115911356417974</v>
+        <v>0.1338133587646982</v>
       </c>
       <c r="Q12">
-        <v>559.0465855393446</v>
+        <v>621.7509534528817</v>
       </c>
       <c r="R12">
-        <v>559.0465855393446</v>
+        <v>5595.758581075936</v>
       </c>
       <c r="S12">
-        <v>0.01785116418128784</v>
+        <v>0.01920215720551919</v>
       </c>
       <c r="T12">
-        <v>0.01785116418128784</v>
+        <v>0.02447188477186268</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>44.2915127415722</v>
+        <v>47.07128266666666</v>
       </c>
       <c r="H13">
-        <v>44.2915127415722</v>
+        <v>141.213848</v>
       </c>
       <c r="I13">
-        <v>0.1540070337622217</v>
+        <v>0.1611236231879644</v>
       </c>
       <c r="J13">
-        <v>0.1540070337622217</v>
+        <v>0.1828807302781694</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.0109961413101</v>
+        <v>19.015954</v>
       </c>
       <c r="N13">
-        <v>19.0109961413101</v>
+        <v>38.031908</v>
       </c>
       <c r="O13">
-        <v>0.1745835724086957</v>
+        <v>0.1715728212222307</v>
       </c>
       <c r="P13">
-        <v>0.1745835724086957</v>
+        <v>0.1284298288238175</v>
       </c>
       <c r="Q13">
-        <v>842.0257778228162</v>
+        <v>895.1053459103306</v>
       </c>
       <c r="R13">
-        <v>842.0257778228162</v>
+        <v>5370.632075461984</v>
       </c>
       <c r="S13">
-        <v>0.02688709813027527</v>
+        <v>0.02764443459590667</v>
       </c>
       <c r="T13">
-        <v>0.02688709813027527</v>
+        <v>0.02348734088480002</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.8228994706997</v>
+        <v>55.86633166666667</v>
       </c>
       <c r="H14">
-        <v>55.8228994706997</v>
+        <v>167.598995</v>
       </c>
       <c r="I14">
-        <v>0.194103082765558</v>
+        <v>0.1912288185579471</v>
       </c>
       <c r="J14">
-        <v>0.194103082765558</v>
+        <v>0.2170511393435526</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.3526627332862</v>
+        <v>17.353591</v>
       </c>
       <c r="N14">
-        <v>17.3526627332862</v>
+        <v>34.707182</v>
       </c>
       <c r="O14">
-        <v>0.1593546086834131</v>
+        <v>0.1565740307431703</v>
       </c>
       <c r="P14">
-        <v>0.1593546086834131</v>
+        <v>0.1172025721985097</v>
       </c>
       <c r="Q14">
-        <v>968.6759473091926</v>
+        <v>969.4814704136818</v>
       </c>
       <c r="R14">
-        <v>968.6759473091926</v>
+        <v>5816.88882248209</v>
       </c>
       <c r="S14">
-        <v>0.03093122079834964</v>
+        <v>0.02994146691587215</v>
       </c>
       <c r="T14">
-        <v>0.03093122079834964</v>
+        <v>0.02543895182968152</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.8228994706997</v>
+        <v>55.86633166666667</v>
       </c>
       <c r="H15">
-        <v>55.8228994706997</v>
+        <v>167.598995</v>
       </c>
       <c r="I15">
-        <v>0.194103082765558</v>
+        <v>0.1912288185579471</v>
       </c>
       <c r="J15">
-        <v>0.194103082765558</v>
+        <v>0.2170511393435526</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.4684254635966</v>
+        <v>20.66837966666667</v>
       </c>
       <c r="N15">
-        <v>19.4684254635966</v>
+        <v>62.005139</v>
       </c>
       <c r="O15">
-        <v>0.1787842804944616</v>
+        <v>0.1864819513920883</v>
       </c>
       <c r="P15">
-        <v>0.1787842804944616</v>
+        <v>0.2093849561259721</v>
       </c>
       <c r="Q15">
-        <v>1086.783957507163</v>
+        <v>1154.666553470589</v>
       </c>
       <c r="R15">
-        <v>1086.783957507163</v>
+        <v>10391.99898123531</v>
       </c>
       <c r="S15">
-        <v>0.03470257999399722</v>
+        <v>0.03566072324708958</v>
       </c>
       <c r="T15">
-        <v>0.03470257999399722</v>
+        <v>0.04544724328854203</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.8228994706997</v>
+        <v>55.86633166666667</v>
       </c>
       <c r="H16">
-        <v>55.8228994706997</v>
+        <v>167.598995</v>
       </c>
       <c r="I16">
-        <v>0.194103082765558</v>
+        <v>0.1912288185579471</v>
       </c>
       <c r="J16">
-        <v>0.194103082765558</v>
+        <v>0.2170511393435526</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.7837605639345</v>
+        <v>20.84714766666667</v>
       </c>
       <c r="N16">
-        <v>20.7837605639345</v>
+        <v>62.541443</v>
       </c>
       <c r="O16">
-        <v>0.1908633898175418</v>
+        <v>0.1880948986102114</v>
       </c>
       <c r="P16">
-        <v>0.1908633898175418</v>
+        <v>0.2111959993930501</v>
       </c>
       <c r="Q16">
-        <v>1160.209776583609</v>
+        <v>1164.653665849976</v>
       </c>
       <c r="R16">
-        <v>1160.209776583609</v>
+        <v>10481.88299264979</v>
       </c>
       <c r="S16">
-        <v>0.03704717235066929</v>
+        <v>0.03596916523800758</v>
       </c>
       <c r="T16">
-        <v>0.03704717235066929</v>
+        <v>0.04584033229306177</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>55.8228994706997</v>
+        <v>55.86633166666667</v>
       </c>
       <c r="H17">
-        <v>55.8228994706997</v>
+        <v>167.598995</v>
       </c>
       <c r="I17">
-        <v>0.194103082765558</v>
+        <v>0.1912288185579471</v>
       </c>
       <c r="J17">
-        <v>0.194103082765558</v>
+        <v>0.2170511393435526</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.6555600177368</v>
+        <v>19.739354</v>
       </c>
       <c r="N17">
-        <v>19.6555600177368</v>
+        <v>59.218062</v>
       </c>
       <c r="O17">
-        <v>0.1805027921779137</v>
+        <v>0.178099750077452</v>
       </c>
       <c r="P17">
-        <v>0.1805027921779137</v>
+        <v>0.1999732846939525</v>
       </c>
       <c r="Q17">
-        <v>1097.230350910426</v>
+        <v>1102.765297449743</v>
       </c>
       <c r="R17">
-        <v>1097.230350910426</v>
+        <v>9924.887677047689</v>
       </c>
       <c r="S17">
-        <v>0.03503614840952391</v>
+        <v>0.0340578047927768</v>
       </c>
       <c r="T17">
-        <v>0.03503614840952391</v>
+        <v>0.043404429281095</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>55.8228994706997</v>
+        <v>55.86633166666667</v>
       </c>
       <c r="H18">
-        <v>55.8228994706997</v>
+        <v>167.598995</v>
       </c>
       <c r="I18">
-        <v>0.194103082765558</v>
+        <v>0.1912288185579471</v>
       </c>
       <c r="J18">
-        <v>0.194103082765558</v>
+        <v>0.2170511393435526</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>12.6219799445825</v>
+        <v>13.20871066666667</v>
       </c>
       <c r="N18">
-        <v>12.6219799445825</v>
+        <v>39.626132</v>
       </c>
       <c r="O18">
-        <v>0.115911356417974</v>
+        <v>0.1191765479548474</v>
       </c>
       <c r="P18">
-        <v>0.115911356417974</v>
+        <v>0.1338133587646982</v>
       </c>
       <c r="Q18">
-        <v>704.5955175676168</v>
+        <v>737.9222109930378</v>
       </c>
       <c r="R18">
-        <v>704.5955175676168</v>
+        <v>6641.29989893734</v>
       </c>
       <c r="S18">
-        <v>0.02249875160826611</v>
+        <v>0.02278999046521999</v>
       </c>
       <c r="T18">
-        <v>0.02249875160826611</v>
+        <v>0.02904434197926531</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>55.8228994706997</v>
+        <v>55.86633166666667</v>
       </c>
       <c r="H19">
-        <v>55.8228994706997</v>
+        <v>167.598995</v>
       </c>
       <c r="I19">
-        <v>0.194103082765558</v>
+        <v>0.1912288185579471</v>
       </c>
       <c r="J19">
-        <v>0.194103082765558</v>
+        <v>0.2170511393435526</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.0109961413101</v>
+        <v>19.015954</v>
       </c>
       <c r="N19">
-        <v>19.0109961413101</v>
+        <v>38.031908</v>
       </c>
       <c r="O19">
-        <v>0.1745835724086957</v>
+        <v>0.1715728212222307</v>
       </c>
       <c r="P19">
-        <v>0.1745835724086957</v>
+        <v>0.1284298288238175</v>
       </c>
       <c r="Q19">
-        <v>1061.248926434214</v>
+        <v>1062.351593122077</v>
       </c>
       <c r="R19">
-        <v>1061.248926434214</v>
+        <v>6374.109558732461</v>
       </c>
       <c r="S19">
-        <v>0.03388720960475185</v>
+        <v>0.03280966789898105</v>
       </c>
       <c r="T19">
-        <v>0.03388720960475185</v>
+        <v>0.02787584067190702</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.6114681591098</v>
+        <v>50.71614066666667</v>
       </c>
       <c r="H20">
-        <v>50.6114681591098</v>
+        <v>152.148422</v>
       </c>
       <c r="I20">
-        <v>0.1759822955475544</v>
+        <v>0.1735998654676657</v>
       </c>
       <c r="J20">
-        <v>0.1759822955475544</v>
+        <v>0.1970416847930601</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.3526627332862</v>
+        <v>17.353591</v>
       </c>
       <c r="N20">
-        <v>17.3526627332862</v>
+        <v>34.707182</v>
       </c>
       <c r="O20">
-        <v>0.1593546086834131</v>
+        <v>0.1565740307431703</v>
       </c>
       <c r="P20">
-        <v>0.1593546086834131</v>
+        <v>0.1172025721985097</v>
       </c>
       <c r="Q20">
-        <v>878.2437374014856</v>
+        <v>880.1071622278008</v>
       </c>
       <c r="R20">
-        <v>878.2437374014856</v>
+        <v>5280.642973366805</v>
       </c>
       <c r="S20">
-        <v>0.02804358984218928</v>
+        <v>0.02718123067274451</v>
       </c>
       <c r="T20">
-        <v>0.02804358984218928</v>
+        <v>0.02309379228807461</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.6114681591098</v>
+        <v>50.71614066666667</v>
       </c>
       <c r="H21">
-        <v>50.6114681591098</v>
+        <v>152.148422</v>
       </c>
       <c r="I21">
-        <v>0.1759822955475544</v>
+        <v>0.1735998654676657</v>
       </c>
       <c r="J21">
-        <v>0.1759822955475544</v>
+        <v>0.1970416847930601</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.4684254635966</v>
+        <v>20.66837966666667</v>
       </c>
       <c r="N21">
-        <v>19.4684254635966</v>
+        <v>62.005139</v>
       </c>
       <c r="O21">
-        <v>0.1787842804944616</v>
+        <v>0.1864819513920883</v>
       </c>
       <c r="P21">
-        <v>0.1787842804944616</v>
+        <v>0.2093849561259721</v>
       </c>
       <c r="Q21">
-        <v>985.3255954588217</v>
+        <v>1048.22045052674</v>
       </c>
       <c r="R21">
-        <v>985.3255954588217</v>
+        <v>9433.984054740658</v>
       </c>
       <c r="S21">
-        <v>0.03146286808923321</v>
+        <v>0.03237324167381431</v>
       </c>
       <c r="T21">
-        <v>0.03146286808923321</v>
+        <v>0.0412575645253825</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>50.6114681591098</v>
+        <v>50.71614066666667</v>
       </c>
       <c r="H22">
-        <v>50.6114681591098</v>
+        <v>152.148422</v>
       </c>
       <c r="I22">
-        <v>0.1759822955475544</v>
+        <v>0.1735998654676657</v>
       </c>
       <c r="J22">
-        <v>0.1759822955475544</v>
+        <v>0.1970416847930601</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.7837605639345</v>
+        <v>20.84714766666667</v>
       </c>
       <c r="N22">
-        <v>20.7837605639345</v>
+        <v>62.541443</v>
       </c>
       <c r="O22">
-        <v>0.1908633898175418</v>
+        <v>0.1880948986102114</v>
       </c>
       <c r="P22">
-        <v>0.1908633898175418</v>
+        <v>0.2111959993930501</v>
       </c>
       <c r="Q22">
-        <v>1051.896636008133</v>
+        <v>1057.286873561439</v>
       </c>
       <c r="R22">
-        <v>1051.896636008133</v>
+        <v>9515.581862052946</v>
       </c>
       <c r="S22">
-        <v>0.03358857747607874</v>
+        <v>0.03265324909388691</v>
       </c>
       <c r="T22">
-        <v>0.03358857747607874</v>
+        <v>0.04161441554196068</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>50.6114681591098</v>
+        <v>50.71614066666667</v>
       </c>
       <c r="H23">
-        <v>50.6114681591098</v>
+        <v>152.148422</v>
       </c>
       <c r="I23">
-        <v>0.1759822955475544</v>
+        <v>0.1735998654676657</v>
       </c>
       <c r="J23">
-        <v>0.1759822955475544</v>
+        <v>0.1970416847930601</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.6555600177368</v>
+        <v>19.739354</v>
       </c>
       <c r="N23">
-        <v>19.6555600177368</v>
+        <v>59.218062</v>
       </c>
       <c r="O23">
-        <v>0.1805027921779137</v>
+        <v>0.178099750077452</v>
       </c>
       <c r="P23">
-        <v>0.1805027921779137</v>
+        <v>0.1999732846939525</v>
       </c>
       <c r="Q23">
-        <v>994.7967499871577</v>
+        <v>1001.103854133129</v>
       </c>
       <c r="R23">
-        <v>994.7967499871577</v>
+        <v>9009.934687198163</v>
       </c>
       <c r="S23">
-        <v>0.03176529572021241</v>
+        <v>0.03091809265327055</v>
       </c>
       <c r="T23">
-        <v>0.03176529572021241</v>
+        <v>0.03940307292969865</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>50.6114681591098</v>
+        <v>50.71614066666667</v>
       </c>
       <c r="H24">
-        <v>50.6114681591098</v>
+        <v>152.148422</v>
       </c>
       <c r="I24">
-        <v>0.1759822955475544</v>
+        <v>0.1735998654676657</v>
       </c>
       <c r="J24">
-        <v>0.1759822955475544</v>
+        <v>0.1970416847930601</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.6219799445825</v>
+        <v>13.20871066666667</v>
       </c>
       <c r="N24">
-        <v>12.6219799445825</v>
+        <v>39.626132</v>
       </c>
       <c r="O24">
-        <v>0.115911356417974</v>
+        <v>0.1191765479548474</v>
       </c>
       <c r="P24">
-        <v>0.115911356417974</v>
+        <v>0.1338133587646982</v>
       </c>
       <c r="Q24">
-        <v>638.8169360701597</v>
+        <v>669.8948281959671</v>
       </c>
       <c r="R24">
-        <v>638.8169360701597</v>
+        <v>6029.053453763704</v>
       </c>
       <c r="S24">
-        <v>0.02039834658246583</v>
+        <v>0.02068903269186231</v>
       </c>
       <c r="T24">
-        <v>0.02039834658246583</v>
+        <v>0.02636680965881432</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>50.6114681591098</v>
+        <v>50.71614066666667</v>
       </c>
       <c r="H25">
-        <v>50.6114681591098</v>
+        <v>152.148422</v>
       </c>
       <c r="I25">
-        <v>0.1759822955475544</v>
+        <v>0.1735998654676657</v>
       </c>
       <c r="J25">
-        <v>0.1759822955475544</v>
+        <v>0.1970416847930601</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.0109961413101</v>
+        <v>19.015954</v>
       </c>
       <c r="N25">
-        <v>19.0109961413101</v>
+        <v>38.031908</v>
       </c>
       <c r="O25">
-        <v>0.1745835724086957</v>
+        <v>0.1715728212222307</v>
       </c>
       <c r="P25">
-        <v>0.1745835724086957</v>
+        <v>0.1284298288238175</v>
       </c>
       <c r="Q25">
-        <v>962.1744258788752</v>
+        <v>964.4157979748627</v>
       </c>
       <c r="R25">
-        <v>962.1744258788752</v>
+        <v>5786.494787849177</v>
       </c>
       <c r="S25">
-        <v>0.03072361783737495</v>
+        <v>0.0297850186820871</v>
       </c>
       <c r="T25">
-        <v>0.03072361783737495</v>
+        <v>0.0253060298491293</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.0664189532916</v>
+        <v>34.22208433333333</v>
       </c>
       <c r="H26">
-        <v>33.0664189532916</v>
+        <v>102.666253</v>
       </c>
       <c r="I26">
-        <v>0.1149760029612974</v>
+        <v>0.1171411932807908</v>
       </c>
       <c r="J26">
-        <v>0.1149760029612974</v>
+        <v>0.1329591933757325</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.3526627332862</v>
+        <v>17.353591</v>
       </c>
       <c r="N26">
-        <v>17.3526627332862</v>
+        <v>34.707182</v>
       </c>
       <c r="O26">
-        <v>0.1593546086834131</v>
+        <v>0.1565740307431703</v>
       </c>
       <c r="P26">
-        <v>0.1593546086834131</v>
+        <v>0.1172025721985097</v>
       </c>
       <c r="Q26">
-        <v>573.7904158940116</v>
+        <v>593.8760546881745</v>
       </c>
       <c r="R26">
-        <v>573.7904158940116</v>
+        <v>3563.256328129046</v>
       </c>
       <c r="S26">
-        <v>0.01832195595988049</v>
+        <v>0.0183412687980382</v>
       </c>
       <c r="T26">
-        <v>0.01832195595988049</v>
+        <v>0.0155831594610749</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>33.0664189532916</v>
+        <v>34.22208433333333</v>
       </c>
       <c r="H27">
-        <v>33.0664189532916</v>
+        <v>102.666253</v>
       </c>
       <c r="I27">
-        <v>0.1149760029612974</v>
+        <v>0.1171411932807908</v>
       </c>
       <c r="J27">
-        <v>0.1149760029612974</v>
+        <v>0.1329591933757325</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>19.4684254635966</v>
+        <v>20.66837966666667</v>
       </c>
       <c r="N27">
-        <v>19.4684254635966</v>
+        <v>62.005139</v>
       </c>
       <c r="O27">
-        <v>0.1787842804944616</v>
+        <v>0.1864819513920883</v>
       </c>
       <c r="P27">
-        <v>0.1787842804944616</v>
+        <v>0.2093849561259721</v>
       </c>
       <c r="Q27">
-        <v>643.7511127402155</v>
+        <v>707.3150319860185</v>
       </c>
       <c r="R27">
-        <v>643.7511127402155</v>
+        <v>6365.835287874167</v>
       </c>
       <c r="S27">
-        <v>0.02055590196356465</v>
+        <v>0.02184471831139966</v>
       </c>
       <c r="T27">
-        <v>0.02055590196356465</v>
+        <v>0.0278396548715224</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>33.0664189532916</v>
+        <v>34.22208433333333</v>
       </c>
       <c r="H28">
-        <v>33.0664189532916</v>
+        <v>102.666253</v>
       </c>
       <c r="I28">
-        <v>0.1149760029612974</v>
+        <v>0.1171411932807908</v>
       </c>
       <c r="J28">
-        <v>0.1149760029612974</v>
+        <v>0.1329591933757325</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>20.7837605639345</v>
+        <v>20.84714766666667</v>
       </c>
       <c r="N28">
-        <v>20.7837605639345</v>
+        <v>62.541443</v>
       </c>
       <c r="O28">
-        <v>0.1908633898175418</v>
+        <v>0.1880948986102114</v>
       </c>
       <c r="P28">
-        <v>0.1908633898175418</v>
+        <v>0.2111959993930501</v>
       </c>
       <c r="Q28">
-        <v>687.2445342319584</v>
+        <v>713.43284555812</v>
       </c>
       <c r="R28">
-        <v>687.2445342319584</v>
+        <v>6420.895610023079</v>
       </c>
       <c r="S28">
-        <v>0.02194470967286495</v>
+        <v>0.02203366087322953</v>
       </c>
       <c r="T28">
-        <v>0.02194470967286495</v>
+        <v>0.02808044972348164</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>33.0664189532916</v>
+        <v>34.22208433333333</v>
       </c>
       <c r="H29">
-        <v>33.0664189532916</v>
+        <v>102.666253</v>
       </c>
       <c r="I29">
-        <v>0.1149760029612974</v>
+        <v>0.1171411932807908</v>
       </c>
       <c r="J29">
-        <v>0.1149760029612974</v>
+        <v>0.1329591933757325</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.6555600177368</v>
+        <v>19.739354</v>
       </c>
       <c r="N29">
-        <v>19.6555600177368</v>
+        <v>59.218062</v>
       </c>
       <c r="O29">
-        <v>0.1805027921779137</v>
+        <v>0.178099750077452</v>
       </c>
       <c r="P29">
-        <v>0.1805027921779137</v>
+        <v>0.1999732846939525</v>
       </c>
       <c r="Q29">
-        <v>649.9389823080528</v>
+        <v>675.5218372735206</v>
       </c>
       <c r="R29">
-        <v>649.9389823080528</v>
+        <v>6079.696535461685</v>
       </c>
       <c r="S29">
-        <v>0.02075348956797026</v>
+        <v>0.02086281724708335</v>
       </c>
       <c r="T29">
-        <v>0.02075348956797026</v>
+        <v>0.02658828662960364</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>33.0664189532916</v>
+        <v>34.22208433333333</v>
       </c>
       <c r="H30">
-        <v>33.0664189532916</v>
+        <v>102.666253</v>
       </c>
       <c r="I30">
-        <v>0.1149760029612974</v>
+        <v>0.1171411932807908</v>
       </c>
       <c r="J30">
-        <v>0.1149760029612974</v>
+        <v>0.1329591933757325</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>12.6219799445825</v>
+        <v>13.20871066666667</v>
       </c>
       <c r="N30">
-        <v>12.6219799445825</v>
+        <v>39.626132</v>
       </c>
       <c r="O30">
-        <v>0.115911356417974</v>
+        <v>0.1191765479548474</v>
       </c>
       <c r="P30">
-        <v>0.115911356417974</v>
+        <v>0.1338133587646982</v>
       </c>
       <c r="Q30">
-        <v>417.3636768676093</v>
+        <v>452.0296103692663</v>
       </c>
       <c r="R30">
-        <v>417.3636768676093</v>
+        <v>4068.266493323396</v>
       </c>
       <c r="S30">
-        <v>0.01332702445876098</v>
+        <v>0.01396048303851621</v>
       </c>
       <c r="T30">
-        <v>0.01332702445876098</v>
+        <v>0.01779171624425178</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>33.0664189532916</v>
+        <v>34.22208433333333</v>
       </c>
       <c r="H31">
-        <v>33.0664189532916</v>
+        <v>102.666253</v>
       </c>
       <c r="I31">
-        <v>0.1149760029612974</v>
+        <v>0.1171411932807908</v>
       </c>
       <c r="J31">
-        <v>0.1149760029612974</v>
+        <v>0.1329591933757325</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.0109961413101</v>
+        <v>19.015954</v>
       </c>
       <c r="N31">
-        <v>19.0109961413101</v>
+        <v>38.031908</v>
       </c>
       <c r="O31">
-        <v>0.1745835724086957</v>
+        <v>0.1715728212222307</v>
       </c>
       <c r="P31">
-        <v>0.1745835724086957</v>
+        <v>0.1284298288238175</v>
       </c>
       <c r="Q31">
-        <v>628.6255631279697</v>
+        <v>650.7655814667874</v>
       </c>
       <c r="R31">
-        <v>628.6255631279697</v>
+        <v>3904.593488800724</v>
       </c>
       <c r="S31">
-        <v>0.02007292133825608</v>
+        <v>0.0200982450125239</v>
       </c>
       <c r="T31">
-        <v>0.02007292133825608</v>
+        <v>0.01707592644579817</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>49.495101007026</v>
+        <v>49.7358395</v>
       </c>
       <c r="H32">
-        <v>49.495101007026</v>
+        <v>99.47167899999999</v>
       </c>
       <c r="I32">
-        <v>0.1721005497448054</v>
+        <v>0.1702443232593253</v>
       </c>
       <c r="J32">
-        <v>0.1721005497448054</v>
+        <v>0.1288220210351866</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>17.3526627332862</v>
+        <v>17.353591</v>
       </c>
       <c r="N32">
-        <v>17.3526627332862</v>
+        <v>34.707182</v>
       </c>
       <c r="O32">
-        <v>0.1593546086834131</v>
+        <v>0.1565740307431703</v>
       </c>
       <c r="P32">
-        <v>0.1593546086834131</v>
+        <v>0.1172025721985097</v>
       </c>
       <c r="Q32">
-        <v>858.8717947248563</v>
+        <v>863.0954167246446</v>
       </c>
       <c r="R32">
-        <v>858.8717947248563</v>
+        <v>3452.381666898578</v>
       </c>
       <c r="S32">
-        <v>0.02742501575878372</v>
+        <v>0.02665583990385581</v>
       </c>
       <c r="T32">
-        <v>0.02742501575878372</v>
+        <v>0.01509827222113439</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>49.495101007026</v>
+        <v>49.7358395</v>
       </c>
       <c r="H33">
-        <v>49.495101007026</v>
+        <v>99.47167899999999</v>
       </c>
       <c r="I33">
-        <v>0.1721005497448054</v>
+        <v>0.1702443232593253</v>
       </c>
       <c r="J33">
-        <v>0.1721005497448054</v>
+        <v>0.1288220210351866</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>19.4684254635966</v>
+        <v>20.66837966666667</v>
       </c>
       <c r="N33">
-        <v>19.4684254635966</v>
+        <v>62.005139</v>
       </c>
       <c r="O33">
-        <v>0.1787842804944616</v>
+        <v>0.1864819513920883</v>
       </c>
       <c r="P33">
-        <v>0.1787842804944616</v>
+        <v>0.2093849561259721</v>
       </c>
       <c r="Q33">
-        <v>963.5916847684707</v>
+        <v>1027.959213826397</v>
       </c>
       <c r="R33">
-        <v>963.5916847684707</v>
+        <v>6167.755282958381</v>
       </c>
       <c r="S33">
-        <v>0.03076887295882633</v>
+        <v>0.03174749361482447</v>
       </c>
       <c r="T33">
-        <v>0.03076887295882633</v>
+        <v>0.0269733932225116</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>49.495101007026</v>
+        <v>49.7358395</v>
       </c>
       <c r="H34">
-        <v>49.495101007026</v>
+        <v>99.47167899999999</v>
       </c>
       <c r="I34">
-        <v>0.1721005497448054</v>
+        <v>0.1702443232593253</v>
       </c>
       <c r="J34">
-        <v>0.1721005497448054</v>
+        <v>0.1288220210351866</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>20.7837605639345</v>
+        <v>20.84714766666667</v>
       </c>
       <c r="N34">
-        <v>20.7837605639345</v>
+        <v>62.541443</v>
       </c>
       <c r="O34">
-        <v>0.1908633898175418</v>
+        <v>0.1880948986102114</v>
       </c>
       <c r="P34">
-        <v>0.1908633898175418</v>
+        <v>0.2111959993930501</v>
       </c>
       <c r="Q34">
-        <v>1028.694328417782</v>
+        <v>1036.850390382133</v>
       </c>
       <c r="R34">
-        <v>1028.694328417782</v>
+        <v>6221.102342292796</v>
       </c>
       <c r="S34">
-        <v>0.03284769431375604</v>
+        <v>0.03202208872242684</v>
       </c>
       <c r="T34">
-        <v>0.03284769431375604</v>
+        <v>0.02720669547635876</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>49.495101007026</v>
+        <v>49.7358395</v>
       </c>
       <c r="H35">
-        <v>49.495101007026</v>
+        <v>99.47167899999999</v>
       </c>
       <c r="I35">
-        <v>0.1721005497448054</v>
+        <v>0.1702443232593253</v>
       </c>
       <c r="J35">
-        <v>0.1721005497448054</v>
+        <v>0.1288220210351866</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.6555600177368</v>
+        <v>19.739354</v>
       </c>
       <c r="N35">
-        <v>19.6555600177368</v>
+        <v>59.218062</v>
       </c>
       <c r="O35">
-        <v>0.1805027921779137</v>
+        <v>0.178099750077452</v>
       </c>
       <c r="P35">
-        <v>0.1805027921779137</v>
+        <v>0.1999732846939525</v>
       </c>
       <c r="Q35">
-        <v>972.8539284275447</v>
+        <v>981.7533423776829</v>
       </c>
       <c r="R35">
-        <v>972.8539284275447</v>
+        <v>5890.520054266098</v>
       </c>
       <c r="S35">
-        <v>0.03106462976429131</v>
+        <v>0.03032047142459078</v>
       </c>
       <c r="T35">
-        <v>0.03106462976429131</v>
+        <v>0.02576096268731971</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>49.495101007026</v>
+        <v>49.7358395</v>
       </c>
       <c r="H36">
-        <v>49.495101007026</v>
+        <v>99.47167899999999</v>
       </c>
       <c r="I36">
-        <v>0.1721005497448054</v>
+        <v>0.1702443232593253</v>
       </c>
       <c r="J36">
-        <v>0.1721005497448054</v>
+        <v>0.1288220210351866</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>12.6219799445825</v>
+        <v>13.20871066666667</v>
       </c>
       <c r="N36">
-        <v>12.6219799445825</v>
+        <v>39.626132</v>
       </c>
       <c r="O36">
-        <v>0.115911356417974</v>
+        <v>0.1191765479548474</v>
       </c>
       <c r="P36">
-        <v>0.115911356417974</v>
+        <v>0.1338133587646982</v>
       </c>
       <c r="Q36">
-        <v>624.7261722657673</v>
+        <v>656.9463137192713</v>
       </c>
       <c r="R36">
-        <v>624.7261722657673</v>
+        <v>3941.677882315628</v>
       </c>
       <c r="S36">
-        <v>0.01994840816119941</v>
+        <v>0.02028913075495551</v>
       </c>
       <c r="T36">
-        <v>0.01994840816119941</v>
+        <v>0.01723810731757492</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>49.495101007026</v>
+        <v>49.7358395</v>
       </c>
       <c r="H37">
-        <v>49.495101007026</v>
+        <v>99.47167899999999</v>
       </c>
       <c r="I37">
-        <v>0.1721005497448054</v>
+        <v>0.1702443232593253</v>
       </c>
       <c r="J37">
-        <v>0.1721005497448054</v>
+        <v>0.1288220210351866</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.0109961413101</v>
+        <v>19.015954</v>
       </c>
       <c r="N37">
-        <v>19.0109961413101</v>
+        <v>38.031908</v>
       </c>
       <c r="O37">
-        <v>0.1745835724086957</v>
+        <v>0.1715728212222307</v>
       </c>
       <c r="P37">
-        <v>0.1745835724086957</v>
+        <v>0.1284298288238175</v>
       </c>
       <c r="Q37">
-        <v>940.9511742583248</v>
+        <v>945.774436083383</v>
       </c>
       <c r="R37">
-        <v>940.9511742583248</v>
+        <v>3783.097744333532</v>
       </c>
       <c r="S37">
-        <v>0.03004592878794856</v>
+        <v>0.02920929883867186</v>
       </c>
       <c r="T37">
-        <v>0.03004592878794856</v>
+        <v>0.01654459011028723</v>
       </c>
     </row>
   </sheetData>
